--- a/participantes_Produtores.xlsx
+++ b/participantes_Produtores.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="396">
   <si>
     <t>ID</t>
   </si>
@@ -1201,9 +1201,6 @@
   </si>
   <si>
     <t>GORONGOSA</t>
-  </si>
-  <si>
-    <t>ProdutorLider1SIM0não</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S165"/>
+  <dimension ref="A1:R165"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1305,9 +1302,6 @@
       <c r="R1" t="s">
         <v>393</v>
       </c>
-      <c r="S1" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1362,7 +1356,6 @@
       <c r="R2" t="s">
         <v>394</v>
       </c>
-      <c r="S2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1417,7 +1410,6 @@
       <c r="R3" t="s">
         <v>394</v>
       </c>
-      <c r="S3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1472,7 +1464,6 @@
       <c r="R4" t="s">
         <v>394</v>
       </c>
-      <c r="S4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1525,7 +1516,6 @@
       <c r="R5" t="s">
         <v>394</v>
       </c>
-      <c r="S5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1580,7 +1570,6 @@
       <c r="R6" t="s">
         <v>394</v>
       </c>
-      <c r="S6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1635,7 +1624,6 @@
       <c r="R7" t="s">
         <v>394</v>
       </c>
-      <c r="S7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1688,7 +1676,6 @@
       <c r="R8" t="s">
         <v>394</v>
       </c>
-      <c r="S8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1745,7 +1732,6 @@
       <c r="R9" t="s">
         <v>394</v>
       </c>
-      <c r="S9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1798,7 +1784,6 @@
       <c r="R10" t="s">
         <v>394</v>
       </c>
-      <c r="S10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1851,7 +1836,6 @@
       <c r="R11" t="s">
         <v>394</v>
       </c>
-      <c r="S11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1908,7 +1892,6 @@
       <c r="R12" t="s">
         <v>394</v>
       </c>
-      <c r="S12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1965,7 +1948,6 @@
       <c r="R13" t="s">
         <v>394</v>
       </c>
-      <c r="S13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2018,7 +2000,6 @@
       <c r="R14" t="s">
         <v>394</v>
       </c>
-      <c r="S14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2073,7 +2054,6 @@
       <c r="R15" t="s">
         <v>394</v>
       </c>
-      <c r="S15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2128,7 +2108,6 @@
       <c r="R16" t="s">
         <v>394</v>
       </c>
-      <c r="S16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2181,7 +2160,6 @@
       <c r="R17" t="s">
         <v>394</v>
       </c>
-      <c r="S17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2236,7 +2214,6 @@
       <c r="R18" t="s">
         <v>394</v>
       </c>
-      <c r="S18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2291,7 +2268,6 @@
       <c r="R19" t="s">
         <v>394</v>
       </c>
-      <c r="S19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2344,7 +2320,6 @@
       <c r="R20" t="s">
         <v>394</v>
       </c>
-      <c r="S20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2397,7 +2372,6 @@
       <c r="R21" t="s">
         <v>394</v>
       </c>
-      <c r="S21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2454,7 +2428,6 @@
       <c r="R22" t="s">
         <v>394</v>
       </c>
-      <c r="S22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2507,7 +2480,6 @@
       <c r="R23" t="s">
         <v>394</v>
       </c>
-      <c r="S23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2562,7 +2534,6 @@
       <c r="R24" t="s">
         <v>394</v>
       </c>
-      <c r="S24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2619,7 +2590,6 @@
       <c r="R25" t="s">
         <v>394</v>
       </c>
-      <c r="S25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2676,7 +2646,6 @@
       <c r="R26" t="s">
         <v>394</v>
       </c>
-      <c r="S26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2733,7 +2702,6 @@
       <c r="R27" t="s">
         <v>394</v>
       </c>
-      <c r="S27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2790,7 +2758,6 @@
       <c r="R28" t="s">
         <v>394</v>
       </c>
-      <c r="S28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2847,7 +2814,6 @@
       <c r="R29" t="s">
         <v>394</v>
       </c>
-      <c r="S29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2904,7 +2870,6 @@
       <c r="R30" t="s">
         <v>394</v>
       </c>
-      <c r="S30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2961,7 +2926,6 @@
       <c r="R31" t="s">
         <v>394</v>
       </c>
-      <c r="S31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3018,7 +2982,6 @@
       <c r="R32" t="s">
         <v>394</v>
       </c>
-      <c r="S32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3075,7 +3038,6 @@
       <c r="R33" t="s">
         <v>394</v>
       </c>
-      <c r="S33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3130,7 +3092,6 @@
       <c r="R34" t="s">
         <v>394</v>
       </c>
-      <c r="S34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3185,7 +3146,6 @@
       <c r="R35" t="s">
         <v>394</v>
       </c>
-      <c r="S35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3240,7 +3200,6 @@
       <c r="R36" t="s">
         <v>394</v>
       </c>
-      <c r="S36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3293,7 +3252,6 @@
       <c r="R37" t="s">
         <v>394</v>
       </c>
-      <c r="S37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3350,7 +3308,6 @@
       <c r="R38" t="s">
         <v>394</v>
       </c>
-      <c r="S38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3407,7 +3364,6 @@
       <c r="R39" t="s">
         <v>394</v>
       </c>
-      <c r="S39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -3464,7 +3420,6 @@
       <c r="R40" t="s">
         <v>394</v>
       </c>
-      <c r="S40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -3521,7 +3476,6 @@
       <c r="R41" t="s">
         <v>394</v>
       </c>
-      <c r="S41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3578,7 +3532,6 @@
       <c r="R42" t="s">
         <v>394</v>
       </c>
-      <c r="S42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -3635,7 +3588,6 @@
       <c r="R43" t="s">
         <v>394</v>
       </c>
-      <c r="S43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -3692,7 +3644,6 @@
       <c r="R44" t="s">
         <v>394</v>
       </c>
-      <c r="S44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -3749,7 +3700,6 @@
       <c r="R45" t="s">
         <v>394</v>
       </c>
-      <c r="S45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -3806,7 +3756,6 @@
       <c r="R46" t="s">
         <v>394</v>
       </c>
-      <c r="S46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -3863,7 +3812,6 @@
       <c r="R47" t="s">
         <v>394</v>
       </c>
-      <c r="S47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -3920,7 +3868,6 @@
       <c r="R48" t="s">
         <v>394</v>
       </c>
-      <c r="S48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -3977,7 +3924,6 @@
       <c r="R49" t="s">
         <v>394</v>
       </c>
-      <c r="S49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -4034,7 +3980,6 @@
       <c r="R50" t="s">
         <v>394</v>
       </c>
-      <c r="S50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -4089,7 +4034,6 @@
       <c r="R51" t="s">
         <v>394</v>
       </c>
-      <c r="S51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -4144,7 +4088,6 @@
       <c r="R52" t="s">
         <v>394</v>
       </c>
-      <c r="S52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -4199,7 +4142,6 @@
       <c r="R53" t="s">
         <v>394</v>
       </c>
-      <c r="S53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -4254,7 +4196,6 @@
       <c r="R54" t="s">
         <v>394</v>
       </c>
-      <c r="S54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -4309,7 +4250,6 @@
       <c r="R55" t="s">
         <v>394</v>
       </c>
-      <c r="S55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -4364,7 +4304,6 @@
       <c r="R56" t="s">
         <v>394</v>
       </c>
-      <c r="S56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -4419,7 +4358,6 @@
       <c r="R57" t="s">
         <v>394</v>
       </c>
-      <c r="S57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -4474,7 +4412,6 @@
       <c r="R58" t="s">
         <v>394</v>
       </c>
-      <c r="S58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -4529,7 +4466,6 @@
       <c r="R59" t="s">
         <v>394</v>
       </c>
-      <c r="S59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -4584,7 +4520,6 @@
       <c r="R60" t="s">
         <v>394</v>
       </c>
-      <c r="S60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -4639,7 +4574,6 @@
       <c r="R61" t="s">
         <v>394</v>
       </c>
-      <c r="S61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -4694,7 +4628,6 @@
       <c r="R62" t="s">
         <v>394</v>
       </c>
-      <c r="S62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -4749,7 +4682,6 @@
       <c r="R63" t="s">
         <v>394</v>
       </c>
-      <c r="S63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -4804,7 +4736,6 @@
       <c r="R64" t="s">
         <v>394</v>
       </c>
-      <c r="S64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -4859,7 +4790,6 @@
       <c r="R65" t="s">
         <v>394</v>
       </c>
-      <c r="S65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -4914,7 +4844,6 @@
       <c r="R66" t="s">
         <v>394</v>
       </c>
-      <c r="S66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -4969,7 +4898,6 @@
       <c r="R67" t="s">
         <v>394</v>
       </c>
-      <c r="S67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -5024,7 +4952,6 @@
       <c r="R68" t="s">
         <v>394</v>
       </c>
-      <c r="S68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -5079,7 +5006,6 @@
       <c r="R69" t="s">
         <v>394</v>
       </c>
-      <c r="S69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -5132,7 +5058,6 @@
       <c r="R70" t="s">
         <v>394</v>
       </c>
-      <c r="S70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -5187,7 +5112,6 @@
       <c r="R71" t="s">
         <v>394</v>
       </c>
-      <c r="S71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -5242,7 +5166,6 @@
       <c r="R72" t="s">
         <v>394</v>
       </c>
-      <c r="S72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -5297,7 +5220,6 @@
       <c r="R73" t="s">
         <v>394</v>
       </c>
-      <c r="S73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -5352,7 +5274,6 @@
       <c r="R74" t="s">
         <v>394</v>
       </c>
-      <c r="S74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -5407,7 +5328,6 @@
       <c r="R75" t="s">
         <v>394</v>
       </c>
-      <c r="S75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -5462,7 +5382,6 @@
       <c r="R76" t="s">
         <v>394</v>
       </c>
-      <c r="S76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -5517,7 +5436,6 @@
       <c r="R77" t="s">
         <v>394</v>
       </c>
-      <c r="S77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -5572,7 +5490,6 @@
       <c r="R78" t="s">
         <v>394</v>
       </c>
-      <c r="S78" s="0"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -5627,7 +5544,6 @@
       <c r="R79" t="s">
         <v>394</v>
       </c>
-      <c r="S79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -5682,7 +5598,6 @@
       <c r="R80" t="s">
         <v>394</v>
       </c>
-      <c r="S80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -5737,7 +5652,6 @@
       <c r="R81" t="s">
         <v>394</v>
       </c>
-      <c r="S81" s="0"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -5792,7 +5706,6 @@
       <c r="R82" t="s">
         <v>394</v>
       </c>
-      <c r="S82" s="0"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -5847,7 +5760,6 @@
       <c r="R83" t="s">
         <v>394</v>
       </c>
-      <c r="S83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -5902,7 +5814,6 @@
       <c r="R84" t="s">
         <v>394</v>
       </c>
-      <c r="S84" s="0"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -5957,7 +5868,6 @@
       <c r="R85" t="s">
         <v>394</v>
       </c>
-      <c r="S85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -6012,7 +5922,6 @@
       <c r="R86" t="s">
         <v>394</v>
       </c>
-      <c r="S86" s="0"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -6067,7 +5976,6 @@
       <c r="R87" t="s">
         <v>394</v>
       </c>
-      <c r="S87" s="0"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -6122,7 +6030,6 @@
       <c r="R88" t="s">
         <v>394</v>
       </c>
-      <c r="S88" s="0"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -6177,7 +6084,6 @@
       <c r="R89" t="s">
         <v>394</v>
       </c>
-      <c r="S89" s="0"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -6232,7 +6138,6 @@
       <c r="R90" t="s">
         <v>394</v>
       </c>
-      <c r="S90" s="0"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -6287,7 +6192,6 @@
       <c r="R91" t="s">
         <v>394</v>
       </c>
-      <c r="S91" s="0"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -6342,7 +6246,6 @@
       <c r="R92" t="s">
         <v>394</v>
       </c>
-      <c r="S92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -6395,7 +6298,6 @@
       <c r="R93" t="s">
         <v>394</v>
       </c>
-      <c r="S93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -6450,7 +6352,6 @@
       <c r="R94" t="s">
         <v>394</v>
       </c>
-      <c r="S94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -6503,7 +6404,6 @@
       <c r="R95" t="s">
         <v>394</v>
       </c>
-      <c r="S95" s="0"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -6556,7 +6456,6 @@
       <c r="R96" t="s">
         <v>394</v>
       </c>
-      <c r="S96" s="0"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -6613,7 +6512,6 @@
       <c r="R97" t="s">
         <v>395</v>
       </c>
-      <c r="S97" s="0"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -6670,7 +6568,6 @@
       <c r="R98" t="s">
         <v>395</v>
       </c>
-      <c r="S98" s="0"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -6727,7 +6624,6 @@
       <c r="R99" t="s">
         <v>395</v>
       </c>
-      <c r="S99" s="0"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -6784,7 +6680,6 @@
       <c r="R100" t="s">
         <v>395</v>
       </c>
-      <c r="S100" s="0"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -6841,7 +6736,6 @@
       <c r="R101" t="s">
         <v>395</v>
       </c>
-      <c r="S101" s="0"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -6898,7 +6792,6 @@
       <c r="R102" t="s">
         <v>395</v>
       </c>
-      <c r="S102" s="0"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -6955,7 +6848,6 @@
       <c r="R103" t="s">
         <v>395</v>
       </c>
-      <c r="S103" s="0"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -7012,7 +6904,6 @@
       <c r="R104" t="s">
         <v>395</v>
       </c>
-      <c r="S104" s="0"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -7069,7 +6960,6 @@
       <c r="R105" t="s">
         <v>395</v>
       </c>
-      <c r="S105" s="0"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -7126,7 +7016,6 @@
       <c r="R106" t="s">
         <v>395</v>
       </c>
-      <c r="S106" s="0"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -7183,7 +7072,6 @@
       <c r="R107" t="s">
         <v>395</v>
       </c>
-      <c r="S107" s="0"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -7240,7 +7128,6 @@
       <c r="R108" t="s">
         <v>395</v>
       </c>
-      <c r="S108" s="0"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -7297,7 +7184,6 @@
       <c r="R109" t="s">
         <v>395</v>
       </c>
-      <c r="S109" s="0"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -7354,7 +7240,6 @@
       <c r="R110" t="s">
         <v>395</v>
       </c>
-      <c r="S110" s="0"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -7409,7 +7294,6 @@
       <c r="R111" t="s">
         <v>395</v>
       </c>
-      <c r="S111" s="0"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -7466,7 +7350,6 @@
       <c r="R112" t="s">
         <v>395</v>
       </c>
-      <c r="S112" s="0"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -7523,7 +7406,6 @@
       <c r="R113" t="s">
         <v>395</v>
       </c>
-      <c r="S113" s="0"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -7580,7 +7462,6 @@
       <c r="R114" t="s">
         <v>395</v>
       </c>
-      <c r="S114" s="0"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -7637,7 +7518,6 @@
       <c r="R115" t="s">
         <v>395</v>
       </c>
-      <c r="S115" s="0"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -7694,7 +7574,6 @@
       <c r="R116" t="s">
         <v>395</v>
       </c>
-      <c r="S116" s="0"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -7751,7 +7630,6 @@
       <c r="R117" t="s">
         <v>395</v>
       </c>
-      <c r="S117" s="0"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -7808,7 +7686,6 @@
       <c r="R118" t="s">
         <v>395</v>
       </c>
-      <c r="S118" s="0"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -7865,7 +7742,6 @@
       <c r="R119" t="s">
         <v>395</v>
       </c>
-      <c r="S119" s="0"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -7922,7 +7798,6 @@
       <c r="R120" t="s">
         <v>395</v>
       </c>
-      <c r="S120" s="0"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -7979,7 +7854,6 @@
       <c r="R121" t="s">
         <v>395</v>
       </c>
-      <c r="S121" s="0"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -8036,7 +7910,6 @@
       <c r="R122" t="s">
         <v>395</v>
       </c>
-      <c r="S122" s="0"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -8093,7 +7966,6 @@
       <c r="R123" t="s">
         <v>395</v>
       </c>
-      <c r="S123" s="0"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -8148,7 +8020,6 @@
       <c r="R124" t="s">
         <v>395</v>
       </c>
-      <c r="S124" s="0"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -8203,7 +8074,6 @@
       <c r="R125" t="s">
         <v>395</v>
       </c>
-      <c r="S125" s="0"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -8260,7 +8130,6 @@
       <c r="R126" t="s">
         <v>395</v>
       </c>
-      <c r="S126" s="0"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -8315,7 +8184,6 @@
       <c r="R127" t="s">
         <v>395</v>
       </c>
-      <c r="S127" s="0"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -8370,7 +8238,6 @@
       <c r="R128" t="s">
         <v>395</v>
       </c>
-      <c r="S128" s="0"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -8427,7 +8294,6 @@
       <c r="R129" t="s">
         <v>395</v>
       </c>
-      <c r="S129" s="0"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -8482,7 +8348,6 @@
       <c r="R130" t="s">
         <v>395</v>
       </c>
-      <c r="S130" s="0"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -8539,7 +8404,6 @@
       <c r="R131" t="s">
         <v>395</v>
       </c>
-      <c r="S131" s="0"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -8594,7 +8458,6 @@
       <c r="R132" t="s">
         <v>395</v>
       </c>
-      <c r="S132" s="0"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -8651,7 +8514,6 @@
       <c r="R133" t="s">
         <v>395</v>
       </c>
-      <c r="S133" s="0"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -8706,7 +8568,6 @@
       <c r="R134" t="s">
         <v>395</v>
       </c>
-      <c r="S134" s="0"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -8763,7 +8624,6 @@
       <c r="R135" t="s">
         <v>395</v>
       </c>
-      <c r="S135" s="0"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -8818,7 +8678,6 @@
       <c r="R136" t="s">
         <v>395</v>
       </c>
-      <c r="S136" s="0"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -8873,7 +8732,6 @@
       <c r="R137" t="s">
         <v>395</v>
       </c>
-      <c r="S137" s="0"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -8928,7 +8786,6 @@
       <c r="R138" t="s">
         <v>395</v>
       </c>
-      <c r="S138" s="0"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -8983,7 +8840,6 @@
       <c r="R139" t="s">
         <v>395</v>
       </c>
-      <c r="S139" s="0"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -9040,7 +8896,6 @@
       <c r="R140" t="s">
         <v>395</v>
       </c>
-      <c r="S140" s="0"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -9097,7 +8952,6 @@
       <c r="R141" t="s">
         <v>395</v>
       </c>
-      <c r="S141" s="0"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -9154,7 +9008,6 @@
       <c r="R142" t="s">
         <v>395</v>
       </c>
-      <c r="S142" s="0"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -9211,7 +9064,6 @@
       <c r="R143" t="s">
         <v>395</v>
       </c>
-      <c r="S143" s="0"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -9266,7 +9118,6 @@
       <c r="R144" t="s">
         <v>395</v>
       </c>
-      <c r="S144" s="0"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -9321,7 +9172,6 @@
       <c r="R145" t="s">
         <v>395</v>
       </c>
-      <c r="S145" s="0"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -9376,7 +9226,6 @@
       <c r="R146" t="s">
         <v>395</v>
       </c>
-      <c r="S146" s="0"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -9431,7 +9280,6 @@
       <c r="R147" t="s">
         <v>395</v>
       </c>
-      <c r="S147" s="0"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -9488,7 +9336,6 @@
       <c r="R148" t="s">
         <v>395</v>
       </c>
-      <c r="S148" s="0"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -9545,7 +9392,6 @@
       <c r="R149" t="s">
         <v>395</v>
       </c>
-      <c r="S149" s="0"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -9602,7 +9448,6 @@
       <c r="R150" t="s">
         <v>395</v>
       </c>
-      <c r="S150" s="0"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -9659,7 +9504,6 @@
       <c r="R151" t="s">
         <v>395</v>
       </c>
-      <c r="S151" s="0"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -9716,7 +9560,6 @@
       <c r="R152" t="s">
         <v>395</v>
       </c>
-      <c r="S152" s="0"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -9773,7 +9616,6 @@
       <c r="R153" t="s">
         <v>395</v>
       </c>
-      <c r="S153" s="0"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -9828,7 +9670,6 @@
       <c r="R154" t="s">
         <v>395</v>
       </c>
-      <c r="S154" s="0"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -9885,7 +9726,6 @@
       <c r="R155" t="s">
         <v>395</v>
       </c>
-      <c r="S155" s="0"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -9942,7 +9782,6 @@
       <c r="R156" t="s">
         <v>395</v>
       </c>
-      <c r="S156" s="0"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -9997,7 +9836,6 @@
       <c r="R157" t="s">
         <v>395</v>
       </c>
-      <c r="S157" s="0"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -10054,7 +9892,6 @@
       <c r="R158" t="s">
         <v>395</v>
       </c>
-      <c r="S158" s="0"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -10109,7 +9946,6 @@
       <c r="R159" t="s">
         <v>395</v>
       </c>
-      <c r="S159" s="0"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -10166,7 +10002,6 @@
       <c r="R160" t="s">
         <v>395</v>
       </c>
-      <c r="S160" s="0"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -10221,7 +10056,6 @@
       <c r="R161" t="s">
         <v>395</v>
       </c>
-      <c r="S161" s="0"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -10278,7 +10112,6 @@
       <c r="R162" t="s">
         <v>395</v>
       </c>
-      <c r="S162" s="0"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -10335,7 +10168,6 @@
       <c r="R163" t="s">
         <v>395</v>
       </c>
-      <c r="S163" s="0"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -10392,7 +10224,6 @@
       <c r="R164" t="s">
         <v>395</v>
       </c>
-      <c r="S164" s="0"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -10449,7 +10280,6 @@
       <c r="R165" t="s">
         <v>395</v>
       </c>
-      <c r="S165" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/participantes_Produtores.xlsx
+++ b/participantes_Produtores.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="397">
   <si>
     <t>ID</t>
   </si>
@@ -1201,6 +1201,9 @@
   </si>
   <si>
     <t>GORONGOSA</t>
+  </si>
+  <si>
+    <t>ProdutorLider1SIM0não</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:S165"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1302,6 +1305,9 @@
       <c r="R1" t="s">
         <v>393</v>
       </c>
+      <c r="S1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1355,6 +1361,9 @@
       </c>
       <c r="R2" t="s">
         <v>394</v>
+      </c>
+      <c r="S2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3">
@@ -1410,6 +1419,9 @@
       <c r="R3" t="s">
         <v>394</v>
       </c>
+      <c r="S3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1464,6 +1476,9 @@
       <c r="R4" t="s">
         <v>394</v>
       </c>
+      <c r="S4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1516,6 +1531,9 @@
       <c r="R5" t="s">
         <v>394</v>
       </c>
+      <c r="S5" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1570,6 +1588,9 @@
       <c r="R6" t="s">
         <v>394</v>
       </c>
+      <c r="S6" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1624,6 +1645,9 @@
       <c r="R7" t="s">
         <v>394</v>
       </c>
+      <c r="S7" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1676,6 +1700,9 @@
       <c r="R8" t="s">
         <v>394</v>
       </c>
+      <c r="S8" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1732,6 +1759,9 @@
       <c r="R9" t="s">
         <v>394</v>
       </c>
+      <c r="S9" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1784,6 +1814,9 @@
       <c r="R10" t="s">
         <v>394</v>
       </c>
+      <c r="S10" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1836,6 +1869,9 @@
       <c r="R11" t="s">
         <v>394</v>
       </c>
+      <c r="S11" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1892,6 +1928,9 @@
       <c r="R12" t="s">
         <v>394</v>
       </c>
+      <c r="S12" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1948,6 +1987,9 @@
       <c r="R13" t="s">
         <v>394</v>
       </c>
+      <c r="S13" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2000,6 +2042,9 @@
       <c r="R14" t="s">
         <v>394</v>
       </c>
+      <c r="S14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2054,6 +2099,9 @@
       <c r="R15" t="s">
         <v>394</v>
       </c>
+      <c r="S15" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2108,6 +2156,9 @@
       <c r="R16" t="s">
         <v>394</v>
       </c>
+      <c r="S16" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2160,6 +2211,9 @@
       <c r="R17" t="s">
         <v>394</v>
       </c>
+      <c r="S17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2214,6 +2268,9 @@
       <c r="R18" t="s">
         <v>394</v>
       </c>
+      <c r="S18" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2268,6 +2325,9 @@
       <c r="R19" t="s">
         <v>394</v>
       </c>
+      <c r="S19" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2320,6 +2380,9 @@
       <c r="R20" t="s">
         <v>394</v>
       </c>
+      <c r="S20" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2372,6 +2435,9 @@
       <c r="R21" t="s">
         <v>394</v>
       </c>
+      <c r="S21" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2428,6 +2494,9 @@
       <c r="R22" t="s">
         <v>394</v>
       </c>
+      <c r="S22" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2480,6 +2549,9 @@
       <c r="R23" t="s">
         <v>394</v>
       </c>
+      <c r="S23" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2534,6 +2606,9 @@
       <c r="R24" t="s">
         <v>394</v>
       </c>
+      <c r="S24" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2590,6 +2665,9 @@
       <c r="R25" t="s">
         <v>394</v>
       </c>
+      <c r="S25" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2646,6 +2724,9 @@
       <c r="R26" t="s">
         <v>394</v>
       </c>
+      <c r="S26" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2702,6 +2783,9 @@
       <c r="R27" t="s">
         <v>394</v>
       </c>
+      <c r="S27" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2758,6 +2842,9 @@
       <c r="R28" t="s">
         <v>394</v>
       </c>
+      <c r="S28" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2814,6 +2901,9 @@
       <c r="R29" t="s">
         <v>394</v>
       </c>
+      <c r="S29" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2870,6 +2960,9 @@
       <c r="R30" t="s">
         <v>394</v>
       </c>
+      <c r="S30" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2926,6 +3019,9 @@
       <c r="R31" t="s">
         <v>394</v>
       </c>
+      <c r="S31" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2982,6 +3078,9 @@
       <c r="R32" t="s">
         <v>394</v>
       </c>
+      <c r="S32" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3038,6 +3137,9 @@
       <c r="R33" t="s">
         <v>394</v>
       </c>
+      <c r="S33" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3092,6 +3194,9 @@
       <c r="R34" t="s">
         <v>394</v>
       </c>
+      <c r="S34" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3146,6 +3251,9 @@
       <c r="R35" t="s">
         <v>394</v>
       </c>
+      <c r="S35" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3200,6 +3308,9 @@
       <c r="R36" t="s">
         <v>394</v>
       </c>
+      <c r="S36" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3252,6 +3363,9 @@
       <c r="R37" t="s">
         <v>394</v>
       </c>
+      <c r="S37" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -3308,6 +3422,9 @@
       <c r="R38" t="s">
         <v>394</v>
       </c>
+      <c r="S38" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -3364,6 +3481,9 @@
       <c r="R39" t="s">
         <v>394</v>
       </c>
+      <c r="S39" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -3420,6 +3540,9 @@
       <c r="R40" t="s">
         <v>394</v>
       </c>
+      <c r="S40" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -3476,6 +3599,9 @@
       <c r="R41" t="s">
         <v>394</v>
       </c>
+      <c r="S41" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -3532,6 +3658,9 @@
       <c r="R42" t="s">
         <v>394</v>
       </c>
+      <c r="S42" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -3588,6 +3717,9 @@
       <c r="R43" t="s">
         <v>394</v>
       </c>
+      <c r="S43" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -3644,6 +3776,9 @@
       <c r="R44" t="s">
         <v>394</v>
       </c>
+      <c r="S44" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -3700,6 +3835,9 @@
       <c r="R45" t="s">
         <v>394</v>
       </c>
+      <c r="S45" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -3756,6 +3894,9 @@
       <c r="R46" t="s">
         <v>394</v>
       </c>
+      <c r="S46" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -3812,6 +3953,9 @@
       <c r="R47" t="s">
         <v>394</v>
       </c>
+      <c r="S47" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -3868,6 +4012,9 @@
       <c r="R48" t="s">
         <v>394</v>
       </c>
+      <c r="S48" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -3924,6 +4071,9 @@
       <c r="R49" t="s">
         <v>394</v>
       </c>
+      <c r="S49" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -3980,6 +4130,9 @@
       <c r="R50" t="s">
         <v>394</v>
       </c>
+      <c r="S50" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -4034,6 +4187,9 @@
       <c r="R51" t="s">
         <v>394</v>
       </c>
+      <c r="S51" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -4088,6 +4244,9 @@
       <c r="R52" t="s">
         <v>394</v>
       </c>
+      <c r="S52" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -4142,6 +4301,9 @@
       <c r="R53" t="s">
         <v>394</v>
       </c>
+      <c r="S53" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -4196,6 +4358,9 @@
       <c r="R54" t="s">
         <v>394</v>
       </c>
+      <c r="S54" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -4250,6 +4415,9 @@
       <c r="R55" t="s">
         <v>394</v>
       </c>
+      <c r="S55" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -4304,6 +4472,9 @@
       <c r="R56" t="s">
         <v>394</v>
       </c>
+      <c r="S56" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -4358,6 +4529,9 @@
       <c r="R57" t="s">
         <v>394</v>
       </c>
+      <c r="S57" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -4412,6 +4586,9 @@
       <c r="R58" t="s">
         <v>394</v>
       </c>
+      <c r="S58" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -4466,6 +4643,9 @@
       <c r="R59" t="s">
         <v>394</v>
       </c>
+      <c r="S59" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -4520,6 +4700,9 @@
       <c r="R60" t="s">
         <v>394</v>
       </c>
+      <c r="S60" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -4574,6 +4757,9 @@
       <c r="R61" t="s">
         <v>394</v>
       </c>
+      <c r="S61" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -4628,6 +4814,9 @@
       <c r="R62" t="s">
         <v>394</v>
       </c>
+      <c r="S62" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -4682,6 +4871,9 @@
       <c r="R63" t="s">
         <v>394</v>
       </c>
+      <c r="S63" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -4736,6 +4928,9 @@
       <c r="R64" t="s">
         <v>394</v>
       </c>
+      <c r="S64" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -4790,6 +4985,9 @@
       <c r="R65" t="s">
         <v>394</v>
       </c>
+      <c r="S65" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -4844,6 +5042,9 @@
       <c r="R66" t="s">
         <v>394</v>
       </c>
+      <c r="S66" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -4898,6 +5099,9 @@
       <c r="R67" t="s">
         <v>394</v>
       </c>
+      <c r="S67" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -4952,6 +5156,9 @@
       <c r="R68" t="s">
         <v>394</v>
       </c>
+      <c r="S68" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -5006,6 +5213,9 @@
       <c r="R69" t="s">
         <v>394</v>
       </c>
+      <c r="S69" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -5058,6 +5268,9 @@
       <c r="R70" t="s">
         <v>394</v>
       </c>
+      <c r="S70" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -5112,6 +5325,9 @@
       <c r="R71" t="s">
         <v>394</v>
       </c>
+      <c r="S71" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -5166,6 +5382,9 @@
       <c r="R72" t="s">
         <v>394</v>
       </c>
+      <c r="S72" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -5220,6 +5439,9 @@
       <c r="R73" t="s">
         <v>394</v>
       </c>
+      <c r="S73" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -5274,6 +5496,9 @@
       <c r="R74" t="s">
         <v>394</v>
       </c>
+      <c r="S74" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -5328,6 +5553,9 @@
       <c r="R75" t="s">
         <v>394</v>
       </c>
+      <c r="S75" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -5382,6 +5610,9 @@
       <c r="R76" t="s">
         <v>394</v>
       </c>
+      <c r="S76" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -5436,6 +5667,9 @@
       <c r="R77" t="s">
         <v>394</v>
       </c>
+      <c r="S77" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -5490,6 +5724,9 @@
       <c r="R78" t="s">
         <v>394</v>
       </c>
+      <c r="S78" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -5544,6 +5781,9 @@
       <c r="R79" t="s">
         <v>394</v>
       </c>
+      <c r="S79" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -5598,6 +5838,9 @@
       <c r="R80" t="s">
         <v>394</v>
       </c>
+      <c r="S80" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -5652,6 +5895,9 @@
       <c r="R81" t="s">
         <v>394</v>
       </c>
+      <c r="S81" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -5706,6 +5952,9 @@
       <c r="R82" t="s">
         <v>394</v>
       </c>
+      <c r="S82" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -5760,6 +6009,9 @@
       <c r="R83" t="s">
         <v>394</v>
       </c>
+      <c r="S83" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -5814,6 +6066,9 @@
       <c r="R84" t="s">
         <v>394</v>
       </c>
+      <c r="S84" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -5868,6 +6123,9 @@
       <c r="R85" t="s">
         <v>394</v>
       </c>
+      <c r="S85" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5922,6 +6180,9 @@
       <c r="R86" t="s">
         <v>394</v>
       </c>
+      <c r="S86" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -5976,6 +6237,9 @@
       <c r="R87" t="s">
         <v>394</v>
       </c>
+      <c r="S87" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -6030,6 +6294,9 @@
       <c r="R88" t="s">
         <v>394</v>
       </c>
+      <c r="S88" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -6084,6 +6351,9 @@
       <c r="R89" t="s">
         <v>394</v>
       </c>
+      <c r="S89" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -6138,6 +6408,9 @@
       <c r="R90" t="s">
         <v>394</v>
       </c>
+      <c r="S90" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -6192,6 +6465,9 @@
       <c r="R91" t="s">
         <v>394</v>
       </c>
+      <c r="S91" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -6246,6 +6522,9 @@
       <c r="R92" t="s">
         <v>394</v>
       </c>
+      <c r="S92" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -6298,6 +6577,9 @@
       <c r="R93" t="s">
         <v>394</v>
       </c>
+      <c r="S93" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -6352,6 +6634,9 @@
       <c r="R94" t="s">
         <v>394</v>
       </c>
+      <c r="S94" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -6404,6 +6689,9 @@
       <c r="R95" t="s">
         <v>394</v>
       </c>
+      <c r="S95" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -6456,6 +6744,9 @@
       <c r="R96" t="s">
         <v>394</v>
       </c>
+      <c r="S96" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -6512,6 +6803,9 @@
       <c r="R97" t="s">
         <v>395</v>
       </c>
+      <c r="S97" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -6568,6 +6862,9 @@
       <c r="R98" t="s">
         <v>395</v>
       </c>
+      <c r="S98" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -6624,6 +6921,9 @@
       <c r="R99" t="s">
         <v>395</v>
       </c>
+      <c r="S99" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -6680,6 +6980,9 @@
       <c r="R100" t="s">
         <v>395</v>
       </c>
+      <c r="S100" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -6736,6 +7039,9 @@
       <c r="R101" t="s">
         <v>395</v>
       </c>
+      <c r="S101" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -6792,6 +7098,9 @@
       <c r="R102" t="s">
         <v>395</v>
       </c>
+      <c r="S102" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -6848,6 +7157,9 @@
       <c r="R103" t="s">
         <v>395</v>
       </c>
+      <c r="S103" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -6904,6 +7216,9 @@
       <c r="R104" t="s">
         <v>395</v>
       </c>
+      <c r="S104" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -6960,6 +7275,9 @@
       <c r="R105" t="s">
         <v>395</v>
       </c>
+      <c r="S105" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -7016,6 +7334,9 @@
       <c r="R106" t="s">
         <v>395</v>
       </c>
+      <c r="S106" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -7072,6 +7393,9 @@
       <c r="R107" t="s">
         <v>395</v>
       </c>
+      <c r="S107" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -7128,6 +7452,9 @@
       <c r="R108" t="s">
         <v>395</v>
       </c>
+      <c r="S108" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -7184,6 +7511,9 @@
       <c r="R109" t="s">
         <v>395</v>
       </c>
+      <c r="S109" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -7240,6 +7570,9 @@
       <c r="R110" t="s">
         <v>395</v>
       </c>
+      <c r="S110" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -7294,6 +7627,9 @@
       <c r="R111" t="s">
         <v>395</v>
       </c>
+      <c r="S111" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -7350,6 +7686,9 @@
       <c r="R112" t="s">
         <v>395</v>
       </c>
+      <c r="S112" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -7406,6 +7745,9 @@
       <c r="R113" t="s">
         <v>395</v>
       </c>
+      <c r="S113" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -7462,6 +7804,9 @@
       <c r="R114" t="s">
         <v>395</v>
       </c>
+      <c r="S114" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -7518,6 +7863,9 @@
       <c r="R115" t="s">
         <v>395</v>
       </c>
+      <c r="S115" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -7574,6 +7922,9 @@
       <c r="R116" t="s">
         <v>395</v>
       </c>
+      <c r="S116" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -7630,6 +7981,9 @@
       <c r="R117" t="s">
         <v>395</v>
       </c>
+      <c r="S117" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -7686,6 +8040,9 @@
       <c r="R118" t="s">
         <v>395</v>
       </c>
+      <c r="S118" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -7742,6 +8099,9 @@
       <c r="R119" t="s">
         <v>395</v>
       </c>
+      <c r="S119" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -7798,6 +8158,9 @@
       <c r="R120" t="s">
         <v>395</v>
       </c>
+      <c r="S120" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -7854,6 +8217,9 @@
       <c r="R121" t="s">
         <v>395</v>
       </c>
+      <c r="S121" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -7910,6 +8276,9 @@
       <c r="R122" t="s">
         <v>395</v>
       </c>
+      <c r="S122" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -7966,6 +8335,9 @@
       <c r="R123" t="s">
         <v>395</v>
       </c>
+      <c r="S123" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -8020,6 +8392,9 @@
       <c r="R124" t="s">
         <v>395</v>
       </c>
+      <c r="S124" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -8074,6 +8449,9 @@
       <c r="R125" t="s">
         <v>395</v>
       </c>
+      <c r="S125" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -8130,6 +8508,9 @@
       <c r="R126" t="s">
         <v>395</v>
       </c>
+      <c r="S126" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -8184,6 +8565,9 @@
       <c r="R127" t="s">
         <v>395</v>
       </c>
+      <c r="S127" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -8238,6 +8622,9 @@
       <c r="R128" t="s">
         <v>395</v>
       </c>
+      <c r="S128" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -8294,6 +8681,9 @@
       <c r="R129" t="s">
         <v>395</v>
       </c>
+      <c r="S129" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -8348,6 +8738,9 @@
       <c r="R130" t="s">
         <v>395</v>
       </c>
+      <c r="S130" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -8404,6 +8797,9 @@
       <c r="R131" t="s">
         <v>395</v>
       </c>
+      <c r="S131" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -8458,6 +8854,9 @@
       <c r="R132" t="s">
         <v>395</v>
       </c>
+      <c r="S132" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -8514,6 +8913,9 @@
       <c r="R133" t="s">
         <v>395</v>
       </c>
+      <c r="S133" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -8568,6 +8970,9 @@
       <c r="R134" t="s">
         <v>395</v>
       </c>
+      <c r="S134" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -8624,6 +9029,9 @@
       <c r="R135" t="s">
         <v>395</v>
       </c>
+      <c r="S135" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -8678,6 +9086,9 @@
       <c r="R136" t="s">
         <v>395</v>
       </c>
+      <c r="S136" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -8732,6 +9143,9 @@
       <c r="R137" t="s">
         <v>395</v>
       </c>
+      <c r="S137" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -8786,6 +9200,9 @@
       <c r="R138" t="s">
         <v>395</v>
       </c>
+      <c r="S138" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -8840,6 +9257,9 @@
       <c r="R139" t="s">
         <v>395</v>
       </c>
+      <c r="S139" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -8896,6 +9316,9 @@
       <c r="R140" t="s">
         <v>395</v>
       </c>
+      <c r="S140" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -8952,6 +9375,9 @@
       <c r="R141" t="s">
         <v>395</v>
       </c>
+      <c r="S141" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -9008,6 +9434,9 @@
       <c r="R142" t="s">
         <v>395</v>
       </c>
+      <c r="S142" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -9064,6 +9493,9 @@
       <c r="R143" t="s">
         <v>395</v>
       </c>
+      <c r="S143" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -9118,6 +9550,9 @@
       <c r="R144" t="s">
         <v>395</v>
       </c>
+      <c r="S144" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -9172,6 +9607,9 @@
       <c r="R145" t="s">
         <v>395</v>
       </c>
+      <c r="S145" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -9226,6 +9664,9 @@
       <c r="R146" t="s">
         <v>395</v>
       </c>
+      <c r="S146" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -9280,6 +9721,9 @@
       <c r="R147" t="s">
         <v>395</v>
       </c>
+      <c r="S147" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -9336,6 +9780,9 @@
       <c r="R148" t="s">
         <v>395</v>
       </c>
+      <c r="S148" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -9392,6 +9839,9 @@
       <c r="R149" t="s">
         <v>395</v>
       </c>
+      <c r="S149" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -9448,6 +9898,9 @@
       <c r="R150" t="s">
         <v>395</v>
       </c>
+      <c r="S150" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -9504,6 +9957,9 @@
       <c r="R151" t="s">
         <v>395</v>
       </c>
+      <c r="S151" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -9560,6 +10016,9 @@
       <c r="R152" t="s">
         <v>395</v>
       </c>
+      <c r="S152" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -9616,6 +10075,9 @@
       <c r="R153" t="s">
         <v>395</v>
       </c>
+      <c r="S153" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -9670,6 +10132,9 @@
       <c r="R154" t="s">
         <v>395</v>
       </c>
+      <c r="S154" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -9726,6 +10191,9 @@
       <c r="R155" t="s">
         <v>395</v>
       </c>
+      <c r="S155" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -9782,6 +10250,9 @@
       <c r="R156" t="s">
         <v>395</v>
       </c>
+      <c r="S156" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -9836,6 +10307,9 @@
       <c r="R157" t="s">
         <v>395</v>
       </c>
+      <c r="S157" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -9892,6 +10366,9 @@
       <c r="R158" t="s">
         <v>395</v>
       </c>
+      <c r="S158" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -9946,6 +10423,9 @@
       <c r="R159" t="s">
         <v>395</v>
       </c>
+      <c r="S159" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -10002,6 +10482,9 @@
       <c r="R160" t="s">
         <v>395</v>
       </c>
+      <c r="S160" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -10056,6 +10539,9 @@
       <c r="R161" t="s">
         <v>395</v>
       </c>
+      <c r="S161" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -10112,6 +10598,9 @@
       <c r="R162" t="s">
         <v>395</v>
       </c>
+      <c r="S162" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -10168,6 +10657,9 @@
       <c r="R163" t="s">
         <v>395</v>
       </c>
+      <c r="S163" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -10224,6 +10716,9 @@
       <c r="R164" t="s">
         <v>395</v>
       </c>
+      <c r="S164" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -10280,6 +10775,9 @@
       <c r="R165" t="s">
         <v>395</v>
       </c>
+      <c r="S165" t="s">
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
